--- a/assets/tmp/Daftar_Target.xlsx
+++ b/assets/tmp/Daftar_Target.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjectPLN\assets\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F12FC9-9A4A-4340-8FD7-9F682A1BD80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FB5ABB-E85B-4420-B2DD-517A44D88F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{29B7EAF6-287C-4EAD-8130-F71A6FD22F16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29B7EAF6-287C-4EAD-8130-F71A6FD22F16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>idpel</t>
   </si>
@@ -58,6 +58,42 @@
   </si>
   <si>
     <t>bujur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nama_pelanggan </t>
+  </si>
+  <si>
+    <t>tipe_pembayaran</t>
+  </si>
+  <si>
+    <t>alamat</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>AHJBM8912678</t>
+  </si>
+  <si>
+    <t>Prabayar</t>
+  </si>
+  <si>
+    <t>Jl. Rasuna Said No. 11, Barito Timur, JT 02620</t>
+  </si>
+  <si>
+    <t>2023/11/06</t>
+  </si>
+  <si>
+    <t>2023/12/02</t>
+  </si>
+  <si>
+    <t>-3,287,316</t>
+  </si>
+  <si>
+    <t>114,573,302</t>
+  </si>
+  <si>
+    <t>Bambang Sugeni</t>
   </si>
 </sst>
 </file>
@@ -417,23 +453,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ACC07F-7BA6-4794-930D-569BB3E57D6E}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="A2:H11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,70 +480,109 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>213456781971</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
